--- a/data/trans_orig/P14A11-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14A11-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A5BAA12-9489-4E87-B5FB-C36AED5B2B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0EA7749-D2C7-4ECA-BB94-81FC1B32336C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9ECD63DB-DC18-42B1-BCC0-E9CD94F16B40}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D162CCF0-A644-4574-96A7-EA1CF079B446}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -150,43 +150,43 @@
     <t>89,84%</t>
   </si>
   <si>
-    <t>69,74%</t>
+    <t>70,88%</t>
   </si>
   <si>
     <t>90,82%</t>
   </si>
   <si>
-    <t>62,67%</t>
+    <t>44,68%</t>
   </si>
   <si>
     <t>90,19%</t>
   </si>
   <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
   </si>
   <si>
     <t>10,16%</t>
   </si>
   <si>
-    <t>30,26%</t>
+    <t>29,12%</t>
   </si>
   <si>
     <t>9,18%</t>
   </si>
   <si>
-    <t>37,33%</t>
+    <t>55,32%</t>
   </si>
   <si>
     <t>9,81%</t>
   </si>
   <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -276,22 +276,22 @@
     <t>94,0%</t>
   </si>
   <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
   </si>
   <si>
     <t>93,92%</t>
   </si>
   <si>
-    <t>76,2%</t>
+    <t>81,31%</t>
   </si>
   <si>
     <t>93,97%</t>
   </si>
   <si>
-    <t>88,05%</t>
+    <t>87,39%</t>
   </si>
   <si>
     <t>97,9%</t>
@@ -300,16 +300,16 @@
     <t>6,0%</t>
   </si>
   <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
   </si>
   <si>
     <t>6,08%</t>
   </si>
   <si>
-    <t>23,8%</t>
+    <t>18,69%</t>
   </si>
   <si>
     <t>6,03%</t>
@@ -318,7 +318,7 @@
     <t>2,1%</t>
   </si>
   <si>
-    <t>11,95%</t>
+    <t>12,61%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -372,7 +372,7 @@
     <t>95,1%</t>
   </si>
   <si>
-    <t>75,29%</t>
+    <t>75,19%</t>
   </si>
   <si>
     <t>12,68%</t>
@@ -384,7 +384,7 @@
     <t>4,9%</t>
   </si>
   <si>
-    <t>24,71%</t>
+    <t>24,81%</t>
   </si>
   <si>
     <t>84,15%</t>
@@ -396,7 +396,7 @@
     <t>86,6%</t>
   </si>
   <si>
-    <t>41,36%</t>
+    <t>42,0%</t>
   </si>
   <si>
     <t>15,85%</t>
@@ -408,7 +408,7 @@
     <t>13,4%</t>
   </si>
   <si>
-    <t>58,64%</t>
+    <t>58,0%</t>
   </si>
   <si>
     <t>86,02%</t>
@@ -450,7 +450,7 @@
     <t>93,38%</t>
   </si>
   <si>
-    <t>71,57%</t>
+    <t>71,25%</t>
   </si>
   <si>
     <t>10,78%</t>
@@ -462,7 +462,7 @@
     <t>6,62%</t>
   </si>
   <si>
-    <t>28,43%</t>
+    <t>28,75%</t>
   </si>
   <si>
     <t>88,77%</t>
@@ -474,7 +474,7 @@
     <t>92,39%</t>
   </si>
   <si>
-    <t>68,04%</t>
+    <t>67,99%</t>
   </si>
   <si>
     <t>11,23%</t>
@@ -486,7 +486,7 @@
     <t>7,61%</t>
   </si>
   <si>
-    <t>31,96%</t>
+    <t>32,01%</t>
   </si>
   <si>
     <t>90,01%</t>
@@ -504,55 +504,55 @@
     <t>92,65%</t>
   </si>
   <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
   </si>
   <si>
     <t>92,87%</t>
   </si>
   <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
   </si>
   <si>
     <t>92,74%</t>
   </si>
   <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
   </si>
   <si>
     <t>7,35%</t>
   </si>
   <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
   </si>
   <si>
     <t>7,13%</t>
   </si>
   <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
   </si>
   <si>
     <t>7,26%</t>
   </si>
   <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
   </si>
 </sst>
 </file>
@@ -964,7 +964,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91256962-E0AB-47F6-A6E4-70B31A54E9FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7416EA63-992A-4DFF-9CD1-1FBB9409661F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2477,7 +2477,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C07F35C-152C-402C-9F74-3483BC24943E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34336EA7-D207-4DF0-9C91-E157F7448A25}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P14A11-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14A11-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0EA7749-D2C7-4ECA-BB94-81FC1B32336C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D389B6E0-4CDF-456F-96A2-8E1BE5CA7BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D162CCF0-A644-4574-96A7-EA1CF079B446}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C84FA448-3640-45C3-BF51-C03EC474B43F}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="168">
   <si>
     <t>Población que recibe medicación o terapia por infarto de miocardio en 2012 (Tasa respuesta: 1,54%)</t>
   </si>
@@ -126,7 +126,7 @@
     <t>85,48%</t>
   </si>
   <si>
-    <t>42,34%</t>
+    <t>40,32%</t>
   </si>
   <si>
     <t>20,56%</t>
@@ -141,7 +141,7 @@
     <t>14,52%</t>
   </si>
   <si>
-    <t>57,66%</t>
+    <t>59,68%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -150,43 +150,43 @@
     <t>89,84%</t>
   </si>
   <si>
-    <t>70,88%</t>
+    <t>68,36%</t>
   </si>
   <si>
     <t>90,82%</t>
   </si>
   <si>
-    <t>44,68%</t>
+    <t>62,06%</t>
   </si>
   <si>
     <t>90,19%</t>
   </si>
   <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
   </si>
   <si>
     <t>10,16%</t>
   </si>
   <si>
-    <t>29,12%</t>
+    <t>31,64%</t>
   </si>
   <si>
     <t>9,18%</t>
   </si>
   <si>
-    <t>55,32%</t>
+    <t>37,94%</t>
   </si>
   <si>
     <t>9,81%</t>
   </si>
   <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -225,37 +225,37 @@
     <t>90,4%</t>
   </si>
   <si>
-    <t>61,43%</t>
+    <t>57,93%</t>
   </si>
   <si>
     <t>76,43%</t>
   </si>
   <si>
-    <t>17,26%</t>
+    <t>17,19%</t>
   </si>
   <si>
     <t>85,83%</t>
   </si>
   <si>
-    <t>58,73%</t>
+    <t>57,91%</t>
   </si>
   <si>
     <t>9,6%</t>
   </si>
   <si>
-    <t>38,57%</t>
+    <t>42,07%</t>
   </si>
   <si>
     <t>23,57%</t>
   </si>
   <si>
-    <t>82,74%</t>
+    <t>82,81%</t>
   </si>
   <si>
     <t>14,17%</t>
   </si>
   <si>
-    <t>41,27%</t>
+    <t>42,09%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -276,55 +276,55 @@
     <t>94,0%</t>
   </si>
   <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
   </si>
   <si>
     <t>93,92%</t>
   </si>
   <si>
-    <t>81,31%</t>
+    <t>79,29%</t>
   </si>
   <si>
     <t>93,97%</t>
   </si>
   <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
   </si>
   <si>
     <t>6,0%</t>
   </si>
   <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
   </si>
   <si>
     <t>6,08%</t>
   </si>
   <si>
-    <t>18,69%</t>
+    <t>20,71%</t>
   </si>
   <si>
     <t>6,03%</t>
   </si>
   <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por infarto de miocardio en 2015 (Tasa respuesta: 1,61%)</t>
+    <t>Población que recibe medicación o terapia por infarto de miocardio en 2016 (Tasa respuesta: 1,61%)</t>
   </si>
   <si>
     <t>56,76%</t>
@@ -339,10 +339,10 @@
     <t>64,7%</t>
   </si>
   <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
   </si>
   <si>
     <t>43,24%</t>
@@ -357,82 +357,82 @@
     <t>35,3%</t>
   </si>
   <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
   </si>
   <si>
     <t>87,32%</t>
   </si>
   <si>
-    <t>38,22%</t>
+    <t>39,82%</t>
   </si>
   <si>
     <t>95,1%</t>
   </si>
   <si>
-    <t>75,19%</t>
+    <t>76,94%</t>
   </si>
   <si>
     <t>12,68%</t>
   </si>
   <si>
-    <t>61,78%</t>
+    <t>60,18%</t>
   </si>
   <si>
     <t>4,9%</t>
   </si>
   <si>
-    <t>24,81%</t>
+    <t>23,06%</t>
   </si>
   <si>
     <t>84,15%</t>
   </si>
   <si>
-    <t>32,92%</t>
+    <t>34,87%</t>
   </si>
   <si>
     <t>86,6%</t>
   </si>
   <si>
-    <t>42,0%</t>
+    <t>55,63%</t>
   </si>
   <si>
     <t>15,85%</t>
   </si>
   <si>
-    <t>67,08%</t>
+    <t>65,13%</t>
   </si>
   <si>
     <t>13,4%</t>
   </si>
   <si>
-    <t>58,0%</t>
+    <t>44,37%</t>
   </si>
   <si>
     <t>86,02%</t>
   </si>
   <si>
-    <t>42,28%</t>
+    <t>42,38%</t>
   </si>
   <si>
     <t>87,86%</t>
   </si>
   <si>
-    <t>49,77%</t>
+    <t>41,48%</t>
   </si>
   <si>
     <t>13,98%</t>
   </si>
   <si>
-    <t>57,72%</t>
+    <t>57,62%</t>
   </si>
   <si>
     <t>12,14%</t>
   </si>
   <si>
-    <t>50,23%</t>
+    <t>58,52%</t>
   </si>
   <si>
     <t>82,92%</t>
@@ -450,7 +450,7 @@
     <t>93,38%</t>
   </si>
   <si>
-    <t>71,25%</t>
+    <t>72,63%</t>
   </si>
   <si>
     <t>10,78%</t>
@@ -462,31 +462,31 @@
     <t>6,62%</t>
   </si>
   <si>
-    <t>28,75%</t>
+    <t>27,37%</t>
   </si>
   <si>
     <t>88,77%</t>
   </si>
   <si>
-    <t>53,56%</t>
+    <t>49,09%</t>
   </si>
   <si>
     <t>92,39%</t>
   </si>
   <si>
-    <t>67,99%</t>
+    <t>68,45%</t>
   </si>
   <si>
     <t>11,23%</t>
   </si>
   <si>
-    <t>46,44%</t>
+    <t>50,91%</t>
   </si>
   <si>
     <t>7,61%</t>
   </si>
   <si>
-    <t>32,01%</t>
+    <t>31,55%</t>
   </si>
   <si>
     <t>90,01%</t>
@@ -504,55 +504,43 @@
     <t>92,65%</t>
   </si>
   <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
   </si>
   <si>
     <t>92,87%</t>
   </si>
   <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
+    <t>81,08%</t>
   </si>
   <si>
     <t>92,74%</t>
   </si>
   <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
+    <t>96,81%</t>
   </si>
   <si>
     <t>7,35%</t>
   </si>
   <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
   </si>
   <si>
     <t>7,13%</t>
   </si>
   <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
+    <t>18,92%</t>
   </si>
   <si>
     <t>7,26%</t>
   </si>
   <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
+    <t>3,19%</t>
   </si>
 </sst>
 </file>
@@ -964,7 +952,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7416EA63-992A-4DFF-9CD1-1FBB9409661F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{424FBD80-7A82-4CAB-AE55-88C174CDF075}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2477,7 +2465,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34336EA7-D207-4DF0-9C91-E157F7448A25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A4B1464-B53B-4F4F-85DC-6CAF6318FF7F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3862,7 +3850,7 @@
         <v>158</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>159</v>
+        <v>85</v>
       </c>
       <c r="M28" s="7">
         <v>98</v>
@@ -3871,13 +3859,13 @@
         <v>103237</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3892,13 +3880,13 @@
         <v>4910</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -3907,13 +3895,13 @@
         <v>3178</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>167</v>
+        <v>92</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M29" s="7">
         <v>8</v>
@@ -3922,13 +3910,13 @@
         <v>8088</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>171</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
